--- a/biology/Médecine/Caspofungine/Caspofungine.xlsx
+++ b/biology/Médecine/Caspofungine/Caspofungine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La caspofungine est un médicament antifongique de la classe des échinocandines, utilisé dans le traitement des infections par Candida albicans et Aspergillus fumigatus.
@@ -512,10 +524,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est utilisé dans le traitement des infections par Candida albicans et Aspergillus fumigatus, y compris chez l'enfant[2].
-Donné à titre préventif (dans le cas d'un traitement d'une leucémie aiguë), il semble être plus efficace que le fluconazole[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé dans le traitement des infections par Candida albicans et Aspergillus fumigatus, y compris chez l'enfant.
+Donné à titre préventif (dans le cas d'un traitement d'une leucémie aiguë), il semble être plus efficace que le fluconazole.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires principaux sont une fièvre (dans moins de 10 % des cas), parfois avec frissons, ainsi que des perturbations du bilan hépatique[4]. Cela n'entraîne que rarement l'arrêt du médicament, même chez les enfants[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires principaux sont une fièvre (dans moins de 10 % des cas), parfois avec frissons, ainsi que des perturbations du bilan hépatique. Cela n'entraîne que rarement l'arrêt du médicament, même chez les enfants.
 </t>
         </is>
       </c>
